--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\galaxy\Data_classify\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2548E8F1-6913-4832-86FB-08FB73E916A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6462C907-DDA2-4FA9-81F2-FD6E5C363F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{DEF8D603-DBA0-43CF-9775-0DB831093233}"/>
+    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="15360" xr2:uid="{DEF8D603-DBA0-43CF-9775-0DB831093233}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,9 +427,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -439,22 +436,55 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -463,37 +493,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -823,1147 +823,1181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="15" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="13"/>
-    </row>
-    <row r="3" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="4">
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="23"/>
+    </row>
+    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="3">
         <v>53.591160220994396</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>34.946236559139699</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>54.970760233918099</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>83.522727272727195</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>40.883977900552402</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="7">
         <v>64.640883977900501</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>37.878787878787797</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>49.738219895287898</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>82.320441988950193</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="6">
         <v>46.961325966850801</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="5">
         <v>36.257309941520397</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>40.151515151515099</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>51.851851851851798</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>63.291139240506297</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="6">
         <v>56.725146198830402</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="10" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="6" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="4">
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
+    </row>
+    <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="3">
         <v>45.672191529999999</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>28.763440858333336</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>46.881091616666659</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>51.704545453333338</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>47.697974216666665</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="7">
         <v>62.246777163333341</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>31.060606059999998</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>52.268760906666671</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>42.63351749666667</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="6">
         <v>38.858195213333339</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <v>42.690058480000005</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>31.69191919166666</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>52.674897118333327</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>37.869198311666665</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="6">
         <v>43.469785571666669</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="6" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="4">
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="18"/>
+    </row>
+    <row r="7" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="3">
         <v>30.386740331491652</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>64.516129032258021</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>44.152046783625693</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>54.261363636363598</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>48.75690607734802</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="7">
         <v>34.116022099447449</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>58.143939393939377</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>47.905759162303625</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>55.38674033149168</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="6">
         <v>54.834254143646348</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <v>37.426900584795249</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>48.484848484848428</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>41.666666666666622</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>56.645569620253127</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="6">
         <v>55.994152046783576</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="6" t="s">
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="4">
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="18"/>
+    </row>
+    <row r="9" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="3">
         <v>66.436464088397756</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>46.102150537634344</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>42.105263157894697</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>88.210227272727224</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>64.779005524861844</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="7">
         <v>60.773480662983374</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>63.257575757575722</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>42.01570680628268</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>77.348066298342502</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="6">
         <v>51.104972375690551</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>48.830409356725099</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>53.219696969696898</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>45.987654320987595</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>60.601265822784782</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="6">
         <v>56.432748538011623</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="10" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="6" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="4">
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
+    </row>
+    <row r="11" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="3">
         <v>71.086556169429059</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>48.566308243727569</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>66.861598440545734</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>92.234848484848428</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <v>41.068139963167532</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="7">
         <v>69.981583793738437</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>54.545454545454504</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>64.048865619546206</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>82.872928176795526</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="6">
         <v>44.751381215469564</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>58.869395711500935</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>55.808080808080767</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>53.292181069958794</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>79.11392405063286</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="6">
         <v>36.6471734892787</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="6" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="4">
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="18"/>
+    </row>
+    <row r="13" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="3">
         <v>29.650092081031271</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>45.698924731182728</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>70.955165692007768</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>78.977272727272705</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <v>45.8563535911602</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="7">
         <v>33.885819521178568</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>72.474747474747431</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>55.497382198952835</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>74.401473296500868</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="6">
         <v>43.646408839778964</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="5">
         <v>58.479532163742626</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>35.606060606060538</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>64.197530864197503</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>81.223628691983095</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="6">
         <v>53.801169590643234</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="6" t="s">
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="4">
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="18"/>
+    </row>
+    <row r="15" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="3">
         <v>63.867403314917098</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>56.129032258064477</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>54.152046783625714</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="6">
         <v>56.243093922651909</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="7">
         <v>31.049723756906019</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>60.303030303030276</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>49.319371727748639</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>91.270718232044175</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="6">
         <v>54.585635359115962</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <v>40.116959064327446</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>74.848484848484802</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>33.209876543209838</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>38.354430379746795</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="6">
         <v>56.140350877192965</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="6" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="4">
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="18"/>
+    </row>
+    <row r="17" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="3">
         <v>50.055248618784503</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>24.516129032258032</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>43.976608187134481</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>97.840909090909065</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <v>61.657458563535862</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="7">
         <v>55.359116022099371</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>52.878787878787833</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>61.78010471204184</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>99.779005524861859</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="6">
         <v>61.104972375690558</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="5">
         <v>34.152046783625693</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>36.969696969696919</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>36.419753086419732</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>64.683544303797433</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="6">
         <v>79.649122807017477</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="6" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="4">
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="18"/>
+    </row>
+    <row r="19" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="3">
         <v>91.712707182320401</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>20.967741935483801</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>98.830409356725099</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>69.318181818181799</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="6">
         <v>6.0773480662983399</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="7">
         <v>73.480662983425404</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>41.6666666666666</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>90.052356020942398</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>70.718232044198899</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="6">
         <v>20.441988950276201</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="5">
         <v>61.403508771929801</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <v>49.2424242424242</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>59.876543209876502</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>94.303797468354404</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="6">
         <v>92.397660818713405</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="10" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="6" t="s">
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="4">
-        <v>67.034990791896831</v>
-      </c>
-      <c r="C21" s="4">
-        <v>86.200716845878105</v>
-      </c>
-      <c r="D21" s="4">
-        <v>99.610136452241704</v>
-      </c>
-      <c r="E21" s="4">
-        <v>99.053030303030297</v>
-      </c>
-      <c r="F21" s="9">
-        <v>97.974217311233815</v>
-      </c>
-      <c r="G21" s="11">
-        <v>69.981583793738437</v>
-      </c>
-      <c r="H21" s="4">
-        <v>55.555555555555507</v>
-      </c>
-      <c r="I21" s="4">
-        <v>91.273996509598533</v>
-      </c>
-      <c r="J21" s="4">
-        <v>92.449355432780806</v>
-      </c>
-      <c r="K21" s="9">
-        <v>75.690607734806562</v>
-      </c>
-      <c r="L21" s="7">
-        <v>54.775828460038973</v>
-      </c>
-      <c r="M21" s="4">
-        <v>58.080808080808033</v>
-      </c>
-      <c r="N21" s="4">
-        <v>89.506172839506135</v>
-      </c>
-      <c r="O21" s="4">
-        <v>60.75949367088603</v>
-      </c>
-      <c r="P21" s="9">
-        <v>75.633528265107159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="2" t="s">
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="18"/>
+    </row>
+    <row r="21" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="3">
+        <v>75.027624309392237</v>
+      </c>
+      <c r="C21" s="3">
+        <v>89.784946236559094</v>
+      </c>
+      <c r="D21" s="3">
+        <v>99.649122807017534</v>
+      </c>
+      <c r="E21" s="3">
+        <v>99.886363636363626</v>
+      </c>
+      <c r="F21" s="6">
+        <v>99.226519337016526</v>
+      </c>
+      <c r="G21" s="7">
+        <v>65.303867403314882</v>
+      </c>
+      <c r="H21" s="3">
+        <v>53.333333333333279</v>
+      </c>
+      <c r="I21" s="3">
+        <v>85.235602094240775</v>
+      </c>
+      <c r="J21" s="3">
+        <v>76.022099447513767</v>
+      </c>
+      <c r="K21" s="6">
+        <v>91.712707182320386</v>
+      </c>
+      <c r="L21" s="5">
+        <v>66.315789473684177</v>
+      </c>
+      <c r="M21" s="3">
+        <v>53.181818181818144</v>
+      </c>
+      <c r="N21" s="3">
+        <v>58.888888888888872</v>
+      </c>
+      <c r="O21" s="3">
+        <v>42.025316455696142</v>
+      </c>
+      <c r="P21" s="6">
+        <v>91.111111111111057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="10" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="6" t="s">
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="4">
-        <v>63.167587476979669</v>
-      </c>
-      <c r="C23" s="4">
-        <v>28.853046594982033</v>
-      </c>
-      <c r="D23" s="4">
-        <v>88.109161793372266</v>
-      </c>
-      <c r="E23" s="4">
-        <v>92.234848484848428</v>
-      </c>
-      <c r="F23" s="9">
-        <v>86.187845303867334</v>
-      </c>
-      <c r="G23" s="11">
-        <v>82.87292817679554</v>
-      </c>
-      <c r="H23" s="4">
-        <v>60.3535353535353</v>
-      </c>
-      <c r="I23" s="4">
-        <v>97.731239092495585</v>
-      </c>
-      <c r="J23" s="4">
-        <v>96.500920810313062</v>
-      </c>
-      <c r="K23" s="9">
-        <v>96.316758747697961</v>
-      </c>
-      <c r="L23" s="7">
-        <v>73.684210526315766</v>
-      </c>
-      <c r="M23" s="4">
-        <v>36.868686868686801</v>
-      </c>
-      <c r="N23" s="4">
-        <v>94.855967078189266</v>
-      </c>
-      <c r="O23" s="4">
-        <v>94.936708860759452</v>
-      </c>
-      <c r="P23" s="9">
-        <v>92.202729044834271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="2" t="s">
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="18"/>
+    </row>
+    <row r="23" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="3">
+        <v>64.456721915285428</v>
+      </c>
+      <c r="C23" s="3">
+        <v>29.211469534050135</v>
+      </c>
+      <c r="D23" s="3">
+        <v>83.82066276803117</v>
+      </c>
+      <c r="E23" s="3">
+        <v>99.810606060606048</v>
+      </c>
+      <c r="F23" s="6">
+        <v>83.977900552486119</v>
+      </c>
+      <c r="G23" s="7">
+        <v>92.633517495395907</v>
+      </c>
+      <c r="H23" s="3">
+        <v>78.535353535353508</v>
+      </c>
+      <c r="I23" s="3">
+        <v>99.301919720767856</v>
+      </c>
+      <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="6">
+        <v>99.447513812154696</v>
+      </c>
+      <c r="L23" s="5">
+        <v>92.007797270955123</v>
+      </c>
+      <c r="M23" s="3">
+        <v>4.7979797979797931</v>
+      </c>
+      <c r="N23" s="3">
+        <v>90.329218106995825</v>
+      </c>
+      <c r="O23" s="3">
+        <v>94.303797468354404</v>
+      </c>
+      <c r="P23" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="10" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="6" t="s">
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="4">
-        <v>86.187845303867377</v>
-      </c>
-      <c r="C25" s="4">
-        <v>27.956989247311768</v>
-      </c>
-      <c r="D25" s="4">
-        <v>69.980506822612028</v>
-      </c>
-      <c r="E25" s="4">
-        <v>75.946969696969674</v>
-      </c>
-      <c r="F25" s="9">
-        <v>72.928176795580072</v>
-      </c>
-      <c r="G25" s="11">
-        <v>81.767955801104932</v>
-      </c>
-      <c r="H25" s="4">
-        <v>28.787878787878736</v>
-      </c>
-      <c r="I25" s="4">
-        <v>71.378708551483371</v>
-      </c>
-      <c r="J25" s="4">
-        <v>75.690607734806591</v>
-      </c>
-      <c r="K25" s="9">
-        <v>97.974217311233872</v>
-      </c>
-      <c r="L25" s="7">
-        <v>83.430799220272831</v>
-      </c>
-      <c r="M25" s="4">
-        <v>53.787878787878732</v>
-      </c>
-      <c r="N25" s="4">
-        <v>98.765432098765402</v>
-      </c>
-      <c r="O25" s="4">
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="18"/>
+    </row>
+    <row r="25" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="3">
+        <v>32.458563535911551</v>
+      </c>
+      <c r="C25" s="3">
+        <v>57.661290322580626</v>
+      </c>
+      <c r="D25" s="3">
+        <v>84.941520467836241</v>
+      </c>
+      <c r="E25" s="3">
+        <v>75.426136363636317</v>
+      </c>
+      <c r="F25" s="6">
+        <v>58.287292817679528</v>
+      </c>
+      <c r="G25" s="7">
+        <v>27.762430939226476</v>
+      </c>
+      <c r="H25" s="3">
+        <v>45.454545454545425</v>
+      </c>
+      <c r="I25" s="3">
+        <v>79.581151832460705</v>
+      </c>
+      <c r="J25" s="3">
+        <v>55.662983425414296</v>
+      </c>
+      <c r="K25" s="6">
+        <v>92.127071823204375</v>
+      </c>
+      <c r="L25" s="5">
+        <v>82.309941520467802</v>
+      </c>
+      <c r="M25" s="3">
+        <v>77.083333333333272</v>
+      </c>
+      <c r="N25" s="3">
+        <v>99.537037037037024</v>
+      </c>
+      <c r="O25" s="3">
         <v>100</v>
       </c>
-      <c r="P25" s="9">
-        <v>99.610136452241704</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="P25" s="6">
+        <v>98.97660818713446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="10" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="6" t="s">
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="4">
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="18"/>
+    </row>
+    <row r="27" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="3">
         <v>98.480662983425376</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>94.220430107526866</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>28.070175438596479</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>98.437499999999957</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="6">
         <v>70.165745856353553</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="7">
         <v>69.75138121546955</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>91.477272727272677</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>27.094240837696294</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>81.767955801104904</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="6">
         <v>80.524861878452981</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="5">
         <v>53.362573099415172</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <v>85.037878787878753</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <v>39.351851851851798</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="3">
         <v>81.329113924050603</v>
       </c>
-      <c r="P27" s="9">
+      <c r="P27" s="6">
         <v>82.163742690058413</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="10" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="6" t="s">
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="4">
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
+    </row>
+    <row r="29" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="3">
         <v>98.342541436464003</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>65.591397849462339</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>31.578947368421051</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>99.810606060606048</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="6">
         <v>70.718232044198871</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="7">
         <v>93.922651933701601</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>86.616161616161591</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <v>32.111692844677115</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>95.027624309392195</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="6">
         <v>70.165745856353567</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="5">
         <v>85.185185185185176</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="3">
         <v>75.252525252525189</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <v>31.687242798353903</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="3">
         <v>91.77215189873418</v>
       </c>
-      <c r="P29" s="9">
+      <c r="P29" s="6">
         <v>70.175438596491162</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="2" t="s">
+    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="10" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="6" t="s">
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" s="5" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="18"/>
+    </row>
+    <row r="31" spans="1:16" s="4" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
-      <c r="B31" s="21">
+      <c r="B31" s="12">
         <v>52.117863720073636</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="12">
         <v>79.211469534050138</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="12">
         <v>23.97660818713447</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="12">
         <v>93.181818181818088</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="13">
         <v>71.823204419889464</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="14">
         <v>31.860036832412465</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="12">
         <v>88.636363636363569</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="12">
         <v>28.272251308900497</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="12">
         <v>88.95027624309391</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="13">
         <v>84.162062615101263</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="15">
         <v>95.711500974658847</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M31" s="12">
         <v>96.717171717171667</v>
       </c>
-      <c r="N31" s="21">
+      <c r="N31" s="12">
         <v>39.300411522633702</v>
       </c>
-      <c r="O31" s="21">
+      <c r="O31" s="12">
         <v>100</v>
       </c>
-      <c r="P31" s="22">
+      <c r="P31" s="13">
         <v>88.109161793372266</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
     <mergeCell ref="G30:K30"/>
     <mergeCell ref="L30:P30"/>
     <mergeCell ref="G24:K24"/>
@@ -1980,40 +2014,6 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="G20:K20"/>
     <mergeCell ref="L20:P20"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="L6:P6"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
